--- a/data/mixture_drc/20240809_mixture_dataset.xlsx
+++ b/data/mixture_drc/20240809_mixture_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\FMDR\data\mixture_drc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31798746-CABA-4382-969A-C76C99264646}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139D078-D72A-435B-9060-B093FBE8B1F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="70">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Predictability of the toxicity of multiple chemical mixtures to vibrio fischeri: mixtures composed of similarly acting chemicals </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Application and validation of approaches for the predictive hazard assessment of realistic pesticide mixture (Junghans 2006)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +243,6 @@
   </si>
   <si>
     <t>The single substance and mixture toxicity of quinolones to the bioluminescent bacterium Vibrio fischeri (Backhaus, 2000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mix_53</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB97996-8581-4B9F-A0F5-6B4A4228E68E}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
@@ -1967,7 +1959,7 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -1975,51 +1967,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45.341000000000001</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="1">
-        <v>-42.82</v>
-      </c>
-      <c r="E53" s="1">
-        <v>23.73</v>
-      </c>
-      <c r="F53" s="1">
-        <v>8.3500000000000005E-2</v>
-      </c>
-      <c r="G53" s="1">
-        <v>28.5</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1.37</v>
-      </c>
-      <c r="E54" s="1">
-        <v>45.341000000000001</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0.10009999999999999</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
